--- a/Dash/grafico_mulheres_mais_escutadas_data.xlsx
+++ b/Dash/grafico_mulheres_mais_escutadas_data.xlsx
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +163,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -210,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,8 +230,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -247,12 +262,12 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="33.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="33.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.89"/>
   </cols>
   <sheetData>
@@ -317,7 +332,7 @@
       <c r="B6" s="2" t="n">
         <v>415474</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -457,7 +472,7 @@
       <c r="B16" s="2" t="n">
         <v>555938</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -591,13 +606,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>480637</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="n">
@@ -605,10 +620,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>483436</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -619,10 +634,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>487381</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -633,10 +648,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>624908</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -647,10 +662,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>656506</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -661,10 +676,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>1056870</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -675,10 +690,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>1194442</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -689,10 +704,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>1223342</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -703,10 +718,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>1228986</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -717,10 +732,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>1906983</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -731,13 +746,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>389330</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -745,10 +760,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>402451</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -757,18 +772,18 @@
       <c r="D37" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="J37" s="5" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>409402</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -777,18 +792,18 @@
       <c r="D38" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="I38" s="1" t="n">
+      <c r="I38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="J38" s="5" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>413286</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -797,18 +812,18 @@
       <c r="D39" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="I39" s="1" t="n">
+      <c r="I39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="J39" s="5" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>539980</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -817,18 +832,18 @@
       <c r="D40" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="I40" s="1" t="n">
+      <c r="I40" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="J40" s="5" t="n">
         <v>2020</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>803421</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -839,10 +854,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>1184288</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -853,10 +868,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>1300502</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -867,10 +882,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>1517158</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -881,10 +896,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>1612497</v>
       </c>
       <c r="C45" s="2" t="s">
